--- a/PageObjectModel/data/PalmOilMillIncomingDOAddFFBQuality.xlsx
+++ b/PageObjectModel/data/PalmOilMillIncomingDOAddFFBQuality.xlsx
@@ -46,10 +46,10 @@
     <t>passwordgmas123</t>
   </si>
   <si>
-    <t>DO-org-003-20200710</t>
-  </si>
-  <si>
-    <t>Fresh fruit bunch</t>
+    <t>DO-org-022-20200801</t>
+  </si>
+  <si>
+    <t>Crude Palm Oil</t>
   </si>
   <si>
     <t>87654</t>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,7 +92,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,21 +100,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,8 +114,59 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,23 +180,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,6 +205,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -176,52 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,13 +242,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,25 +380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,19 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,115 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +451,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -464,6 +518,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -483,216 +548,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>

--- a/PageObjectModel/data/PalmOilMillIncomingDOAddFFBQuality.xlsx
+++ b/PageObjectModel/data/PalmOilMillIncomingDOAddFFBQuality.xlsx
@@ -46,7 +46,7 @@
     <t>passwordgmas123</t>
   </si>
   <si>
-    <t>DO-org-022-20200801</t>
+    <t>DO-org</t>
   </si>
   <si>
     <t>Crude Palm Oil</t>
@@ -92,16 +92,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,6 +114,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -120,112 +226,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -242,13 +242,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,169 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,21 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -485,6 +470,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -514,11 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,25 +548,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,130 +569,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,14 +1033,14 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="21.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="7.55555555555556" customWidth="1"/>
     <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="12.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
